--- a/roadmap.xlsx
+++ b/roadmap.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Составить RoadMap</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Дизайн (покраска) (доработки)</t>
+  </si>
+  <si>
+    <t>Разобраться, как можно отображать гистограммы/диаграммы на странице (в каком формате)</t>
+  </si>
+  <si>
+    <t>Отображение диаграмм/гистограмм</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
   <dimension ref="A3:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +573,9 @@
       <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" s="6" t="s">
         <v>19</v>
       </c>
@@ -577,14 +585,16 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
